--- a/biology/Médecine/1495_en_santé_et_médecine/1495_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1495_en_santé_et_médecine/1495_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1495_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1495_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1495 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1495_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1495_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Février : fondation du King's College (en) d'Aberdeen, où la médecine est enseignée dès l'origine[1].
-22 février : entrée des Français à Naples et apparition du « mal des Français »[2].
-Apparition du mot « symptôme »  dans la langue française[3].
-Peste en Finlande[4].
-1494-1495 : épidémie en Islande, dite « Seconde Peste » par référence à la peste noire qui a fait des ravages entre 1402 et 1404[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Février : fondation du King's College (en) d'Aberdeen, où la médecine est enseignée dès l'origine.
+22 février : entrée des Français à Naples et apparition du « mal des Français ».
+Apparition du mot « symptôme »  dans la langue française.
+Peste en Finlande.
+1494-1495 : épidémie en Islande, dite « Seconde Peste » par référence à la peste noire qui a fait des ravages entre 1402 et 1404.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1495_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1495_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15 octobre : publication à Venise du Fasciculus medicinae (en) de Johannes de Ketham (en)[6], initialement paru en 1491, premier livre imprimé qui contienne des planches d'anatomie[7].
-Thomas Le Forestier publie à Rouen le Traité de la peste, adaptation française de son Tractatus contra pestilentiam de 1490[8].
-Nouvelle publication à Venise de la traduction des Canons d'Avicenne par Gérard de Crémone (1114-1187) et Gentile da Foligno (1280-1348[9]).
-Gabriel de Zerbis (1445-1505) publie à Venise son De cautelis medicorum (« Des précautions [à prendre] avec les médicaments[10] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15 octobre : publication à Venise du Fasciculus medicinae (en) de Johannes de Ketham (en), initialement paru en 1491, premier livre imprimé qui contienne des planches d'anatomie.
+Thomas Le Forestier publie à Rouen le Traité de la peste, adaptation française de son Tractatus contra pestilentiam de 1490.
+Nouvelle publication à Venise de la traduction des Canons d'Avicenne par Gérard de Crémone (1114-1187) et Gentile da Foligno (1280-1348).
+Gabriel de Zerbis (1445-1505) publie à Venise son De cautelis medicorum (« Des précautions [à prendre] avec les médicaments »).</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1495_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1495_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>8 mars : Jean de Dieu (mort en 1550), fondateur de l'ordre des Frères de la charité.
-Matthaeus Curtius (mort en 1542), professeur de médecine à l'université de Bologne[11].</t>
+Matthaeus Curtius (mort en 1542), professeur de médecine à l'université de Bologne.</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1495_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1495_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Jean Troussellier (né à une date inconnue), médecin du roi Charles VIII[12].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jean Troussellier (né à une date inconnue), médecin du roi Charles VIII.</t>
         </is>
       </c>
     </row>
